--- a/docs/flow/broadcast_channel_room_availability.xlsx
+++ b/docs/flow/broadcast_channel_room_availability.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brunoric/Devel/Smartbox/millenniumfalcon/r2-d2-api/docs/flow/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC015CD5-FDA0-FB46-B3D4-9DE27675EB9B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D452DCAC-872F-9C4C-A4C9-E719F64ABF9E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-4800" yWindow="-21140" windowWidth="38400" windowHeight="21140" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -243,13 +243,13 @@
     <t>end_date</t>
   </si>
   <si>
-    <t>rate_band_smartbox_id</t>
-  </si>
-  <si>
-    <t>room_smartbox_id</t>
-  </si>
-  <si>
-    <t>partner_smartbox_id</t>
+    <t>rate_band_golden_id</t>
+  </si>
+  <si>
+    <t>room_golden_id</t>
+  </si>
+  <si>
+    <t>partner_golden_id</t>
   </si>
 </sst>
 </file>
@@ -604,24 +604,12 @@
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -632,12 +620,24 @@
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -1025,8 +1025,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMK104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1042,15 +1042,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
     </row>
     <row r="2" spans="1:22" ht="34" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
@@ -1069,14 +1069,14 @@
       <c r="A3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
       <c r="H3" s="1" t="s">
         <v>5</v>
       </c>
@@ -1085,40 +1085,40 @@
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="28" t="s">
+      <c r="B4" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
     </row>
     <row r="5" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="29" t="s">
+      <c r="B5" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="29"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="32"/>
     </row>
     <row r="6" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="30" t="s">
+      <c r="B6" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="30"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="35"/>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
@@ -1149,14 +1149,14 @@
       <c r="A9" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="29" t="s">
+      <c r="B9" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="29"/>
-      <c r="D9" s="29"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="29"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="32"/>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
@@ -1189,14 +1189,14 @@
       <c r="A12" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="32" t="s">
+      <c r="B12" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="32"/>
-      <c r="D12" s="32"/>
-      <c r="E12" s="32"/>
-      <c r="F12" s="32"/>
-      <c r="G12" s="32"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="29"/>
       <c r="H12" s="1" t="s">
         <v>23</v>
       </c>
@@ -1205,14 +1205,14 @@
       <c r="A13" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="33" t="s">
+      <c r="B13" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="33"/>
-      <c r="D13" s="33"/>
-      <c r="E13" s="33"/>
-      <c r="F13" s="33"/>
-      <c r="G13" s="33"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="30"/>
       <c r="H13" s="1" t="s">
         <v>25</v>
       </c>
@@ -1221,12 +1221,12 @@
       <c r="A14" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="32"/>
-      <c r="C14" s="32"/>
-      <c r="D14" s="32"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="32"/>
-      <c r="G14" s="32"/>
+      <c r="B14" s="29"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="29"/>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
@@ -1263,44 +1263,44 @@
       <c r="B17" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="34" t="s">
+      <c r="C17" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="D17" s="34"/>
+      <c r="D17" s="27"/>
       <c r="E17" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="F17" s="34" t="s">
+      <c r="F17" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="G17" s="34"/>
+      <c r="G17" s="27"/>
       <c r="H17" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="I17" s="34" t="s">
+      <c r="I17" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="J17" s="34"/>
+      <c r="J17" s="27"/>
       <c r="K17" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="L17" s="34"/>
-      <c r="M17" s="34"/>
+      <c r="L17" s="27"/>
+      <c r="M17" s="27"/>
       <c r="N17" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="O17" s="34"/>
-      <c r="P17" s="34"/>
+      <c r="O17" s="27"/>
+      <c r="P17" s="27"/>
       <c r="Q17" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="R17" s="34"/>
-      <c r="S17" s="34"/>
+      <c r="R17" s="27"/>
+      <c r="S17" s="27"/>
       <c r="T17" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="U17" s="34"/>
-      <c r="V17" s="34"/>
+      <c r="U17" s="27"/>
+      <c r="V17" s="27"/>
     </row>
     <row r="18" spans="1:22" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="16" t="s">
@@ -1309,42 +1309,42 @@
       <c r="B18" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="C18" s="34"/>
-      <c r="D18" s="34"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="27"/>
       <c r="E18" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="F18" s="34" t="s">
+      <c r="F18" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="G18" s="34"/>
+      <c r="G18" s="27"/>
       <c r="H18" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="I18" s="34" t="s">
+      <c r="I18" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="J18" s="34"/>
+      <c r="J18" s="27"/>
       <c r="K18" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="L18" s="34"/>
-      <c r="M18" s="34"/>
+      <c r="L18" s="27"/>
+      <c r="M18" s="27"/>
       <c r="N18" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="O18" s="34"/>
-      <c r="P18" s="34"/>
+      <c r="O18" s="27"/>
+      <c r="P18" s="27"/>
       <c r="Q18" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="R18" s="34"/>
-      <c r="S18" s="34"/>
+      <c r="R18" s="27"/>
+      <c r="S18" s="27"/>
       <c r="T18" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="U18" s="34"/>
-      <c r="V18" s="34"/>
+      <c r="U18" s="27"/>
+      <c r="V18" s="27"/>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A19" s="18" t="s">
@@ -2470,69 +2470,69 @@
       <c r="A62" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="B62" s="35" t="s">
+      <c r="B62" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="C62" s="34" t="s">
+      <c r="C62" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="34"/>
-      <c r="E62" s="35" t="s">
+      <c r="D62" s="27"/>
+      <c r="E62" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="F62" s="34"/>
-      <c r="G62" s="34"/>
-      <c r="H62" s="35" t="s">
+      <c r="F62" s="27"/>
+      <c r="G62" s="27"/>
+      <c r="H62" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="I62" s="34"/>
-      <c r="J62" s="34"/>
-      <c r="K62" s="35" t="s">
+      <c r="I62" s="27"/>
+      <c r="J62" s="27"/>
+      <c r="K62" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="L62" s="34"/>
-      <c r="M62" s="34"/>
-      <c r="N62" s="35" t="s">
+      <c r="L62" s="27"/>
+      <c r="M62" s="27"/>
+      <c r="N62" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="O62" s="34"/>
-      <c r="P62" s="34"/>
-      <c r="Q62" s="35" t="s">
+      <c r="O62" s="27"/>
+      <c r="P62" s="27"/>
+      <c r="Q62" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="R62" s="34"/>
-      <c r="S62" s="34"/>
-      <c r="T62" s="35" t="s">
+      <c r="R62" s="27"/>
+      <c r="S62" s="27"/>
+      <c r="T62" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="U62" s="34"/>
-      <c r="V62" s="34"/>
+      <c r="U62" s="27"/>
+      <c r="V62" s="27"/>
     </row>
     <row r="63" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A63" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="B63" s="35"/>
-      <c r="C63" s="34"/>
-      <c r="D63" s="34"/>
-      <c r="E63" s="35"/>
-      <c r="F63" s="34"/>
-      <c r="G63" s="34"/>
-      <c r="H63" s="35"/>
-      <c r="I63" s="34"/>
-      <c r="J63" s="34"/>
-      <c r="K63" s="35"/>
-      <c r="L63" s="34"/>
-      <c r="M63" s="34"/>
-      <c r="N63" s="35"/>
-      <c r="O63" s="34"/>
-      <c r="P63" s="34"/>
-      <c r="Q63" s="35"/>
-      <c r="R63" s="34"/>
-      <c r="S63" s="34"/>
-      <c r="T63" s="35"/>
-      <c r="U63" s="34"/>
-      <c r="V63" s="34"/>
+      <c r="B63" s="28"/>
+      <c r="C63" s="27"/>
+      <c r="D63" s="27"/>
+      <c r="E63" s="28"/>
+      <c r="F63" s="27"/>
+      <c r="G63" s="27"/>
+      <c r="H63" s="28"/>
+      <c r="I63" s="27"/>
+      <c r="J63" s="27"/>
+      <c r="K63" s="28"/>
+      <c r="L63" s="27"/>
+      <c r="M63" s="27"/>
+      <c r="N63" s="28"/>
+      <c r="O63" s="27"/>
+      <c r="P63" s="27"/>
+      <c r="Q63" s="28"/>
+      <c r="R63" s="27"/>
+      <c r="S63" s="27"/>
+      <c r="T63" s="28"/>
+      <c r="U63" s="27"/>
+      <c r="V63" s="27"/>
     </row>
     <row r="64" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A64" s="18" t="s">
@@ -3574,6 +3574,31 @@
     </row>
   </sheetData>
   <mergeCells count="41">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="B8:G8"/>
+    <mergeCell ref="B9:G9"/>
+    <mergeCell ref="B10:G10"/>
+    <mergeCell ref="B11:G11"/>
+    <mergeCell ref="B12:G12"/>
+    <mergeCell ref="B13:G13"/>
+    <mergeCell ref="B14:G14"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="O17:P17"/>
+    <mergeCell ref="R17:S17"/>
+    <mergeCell ref="U17:V17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="O18:P18"/>
     <mergeCell ref="R18:S18"/>
     <mergeCell ref="U18:V18"/>
     <mergeCell ref="B62:B63"/>
@@ -3590,31 +3615,6 @@
     <mergeCell ref="R62:S63"/>
     <mergeCell ref="T62:T63"/>
     <mergeCell ref="U62:V63"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="O18:P18"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="O17:P17"/>
-    <mergeCell ref="R17:S17"/>
-    <mergeCell ref="U17:V17"/>
-    <mergeCell ref="B12:G12"/>
-    <mergeCell ref="B13:G13"/>
-    <mergeCell ref="B14:G14"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="B8:G8"/>
-    <mergeCell ref="B9:G9"/>
-    <mergeCell ref="B10:G10"/>
-    <mergeCell ref="B11:G11"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="B6:G6"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -3622,6 +3622,20 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="42b4b149-d7d7-4e8c-abdf-ceb02bd3b3b1">
+      <UserInfo>
+        <DisplayName>David Marsa</DisplayName>
+        <AccountId>3770</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C6379E87B2495644A3F115529E515E23" ma:contentTypeVersion="6" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2f17b3b47a05e0bea1f18ecc517edc6c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8f6b1b8c-e13e-4444-a6b8-69df6e003468" xmlns:ns3="42b4b149-d7d7-4e8c-abdf-ceb02bd3b3b1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1c71e01e01fe38f49823c814be26f7e9" ns2:_="" ns3:_="">
     <xsd:import namespace="8f6b1b8c-e13e-4444-a6b8-69df6e003468"/>
@@ -3800,20 +3814,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="42b4b149-d7d7-4e8c-abdf-ceb02bd3b3b1">
-      <UserInfo>
-        <DisplayName>David Marsa</DisplayName>
-        <AccountId>3770</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -3824,6 +3824,16 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{86BCA92F-C765-4A7A-A342-4711D6DCFF66}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="42b4b149-d7d7-4e8c-abdf-ceb02bd3b3b1"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A823033-4527-4639-9386-152EA650B72A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3842,16 +3852,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{86BCA92F-C765-4A7A-A342-4711D6DCFF66}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="42b4b149-d7d7-4e8c-abdf-ceb02bd3b3b1"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C2B9D851-B728-4DEA-8970-A9221F01ECA4}">
   <ds:schemaRefs>
